--- a/cambridge-colleges-coords.xlsx
+++ b/cambridge-colleges-coords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lathanliou/Desktop/Academic/DataProjects/cambridge-colleges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B477330-1C15-3F45-BB44-B5AAF6E52F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF89ECF-7DE9-6F41-A8AD-D918D013444E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14580" xr2:uid="{A98FDA03-0B5D-A14C-9313-971F622D1C76}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -231,6 +231,21 @@
   </si>
   <si>
     <t>Barton Rd, Cambridge CB3 9BB, UK</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>outside</t>
   </si>
 </sst>
 </file>
@@ -238,7 +253,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -278,7 +293,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,15 +608,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1294B-4F6D-A84E-AEB7-4840E47F9D8C}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,8 +629,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -628,8 +646,11 @@
       <c r="D2" s="2">
         <v>0.12246269999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -642,8 +663,11 @@
       <c r="D3" s="2">
         <v>9.987E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -656,8 +680,11 @@
       <c r="D4" s="2">
         <v>0.11519550000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -670,8 +697,11 @@
       <c r="D5" s="2">
         <v>0.10437780000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -684,8 +714,11 @@
       <c r="D6" s="2">
         <v>0.1179057</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -698,8 +731,11 @@
       <c r="D7" s="2">
         <v>0.1135917</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -712,8 +748,11 @@
       <c r="D8" s="2">
         <v>0.12581529999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -726,8 +765,11 @@
       <c r="D9" s="2">
         <v>0.1237007</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -740,8 +782,11 @@
       <c r="D10" s="2">
         <v>0.106179680291502</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -754,8 +799,11 @@
       <c r="D11" s="2">
         <v>8.3623599999999895E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -768,8 +816,11 @@
       <c r="D12" s="1">
         <v>0.11797680000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -782,8 +833,11 @@
       <c r="D13" s="1">
         <v>0.13662099999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -796,8 +850,11 @@
       <c r="D14" s="1">
         <v>0.13252120000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -810,8 +867,11 @@
       <c r="D15" s="1">
         <v>0.123381</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -824,8 +884,11 @@
       <c r="D16" s="1">
         <v>0.1166446</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -838,8 +901,11 @@
       <c r="D17" s="1">
         <v>0.11001660000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -852,8 +918,11 @@
       <c r="D18" s="1">
         <v>0.11627270000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -866,8 +935,11 @@
       <c r="D19" s="1">
         <v>0.1086459</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -880,8 +952,11 @@
       <c r="D20" s="1">
         <v>0.107853</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -894,8 +969,11 @@
       <c r="D21" s="1">
         <v>0.1199215</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -908,8 +986,11 @@
       <c r="D22" s="1">
         <v>0.1181146</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -922,8 +1003,11 @@
       <c r="D23" s="1">
         <v>0.11436789999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -936,8 +1020,11 @@
       <c r="D24" s="1">
         <v>0.1042334</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -950,8 +1037,11 @@
       <c r="D25" s="1">
         <v>0.10562970000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -964,8 +1054,11 @@
       <c r="D26" s="1">
         <v>0.1207903</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -978,8 +1071,11 @@
       <c r="D27" s="1">
         <v>0.11682629999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -992,8 +1088,11 @@
       <c r="D28" s="1">
         <v>0.1087819</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1006,8 +1105,11 @@
       <c r="D29" s="1">
         <v>0.11486499999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1020,8 +1122,11 @@
       <c r="D30" s="1">
         <v>0.1130816</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1034,8 +1139,11 @@
       <c r="D31" s="1">
         <v>0.1151331</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1047,6 +1155,9 @@
       </c>
       <c r="D32" s="1">
         <v>0.100967</v>
+      </c>
+      <c r="E32" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/cambridge-colleges-coords.xlsx
+++ b/cambridge-colleges-coords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lathanliou/Desktop/Academic/DataProjects/cambridge-colleges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF89ECF-7DE9-6F41-A8AD-D918D013444E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415CE446-6D61-BA4B-BA47-3AD992A6B446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1960" windowWidth="26840" windowHeight="14580" xr2:uid="{A98FDA03-0B5D-A14C-9313-971F622D1C76}"/>
+    <workbookView xWindow="1580" yWindow="1900" windowWidth="26840" windowHeight="14580" xr2:uid="{A98FDA03-0B5D-A14C-9313-971F622D1C76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1294B-4F6D-A84E-AEB7-4840E47F9D8C}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>0.1135917</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.25">
